--- a/school/xlxs/Book1.xlsx
+++ b/school/xlxs/Book1.xlsx
@@ -59,7 +59,7 @@
     <t>Address</t>
   </si>
   <si>
-    <t>Student1</t>
+    <t>Dharun Vignesh G</t>
   </si>
   <si>
     <t>Male</t>
@@ -68,10 +68,10 @@
     <t>A</t>
   </si>
   <si>
-    <t>gdvbca@gmail.com</t>
-  </si>
-  <si>
-    <t>AAA</t>
+    <t>rfg@gmail</t>
+  </si>
+  <si>
+    <t>AAV</t>
   </si>
 </sst>
 </file>
@@ -688,14 +688,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1234,7 +1237,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
@@ -1246,10 +1249,10 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -1278,28 +1281,28 @@
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B2" s="2">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1">
         <v>38339</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
       <c r="G2">
-        <v>1177733</v>
+        <v>1111</v>
       </c>
       <c r="H2">
         <v>2025</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="J2" t="s">
@@ -1307,11 +1310,11 @@
       </c>
     </row>
     <row r="3" spans="3:3">
-      <c r="C3" s="2"/>
+      <c r="C3" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" display="gdvbca@gmail.com"/>
+    <hyperlink ref="I2" r:id="rId1" display="rfg@gmail" tooltip="mailto:rfg@gmail"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
